--- a/assets/Page_Layout.xlsx
+++ b/assets/Page_Layout.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UT_BootCamp\Projects\Group-Project-2\auto-tracker\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\Documents\GitHub\auto-tracker\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD7AF46-B097-4BD6-A82F-E0316C2B61F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E76C8CE-4A17-489C-8B7A-79E2227FB862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="510" windowWidth="15360" windowHeight="14790" xr2:uid="{DDC1677D-DCB0-46BC-99F7-D600D37E193E}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="2" activeTab="6" xr2:uid="{DDC1677D-DCB0-46BC-99F7-D600D37E193E}"/>
   </bookViews>
   <sheets>
     <sheet name="Initial_Page" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Vehicle_Page" sheetId="4" r:id="rId4"/>
     <sheet name="Update_Page" sheetId="5" r:id="rId5"/>
     <sheet name="Driver_Page" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -239,12 +241,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -391,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -415,6 +447,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB0489A4-A9F5-43F6-9DD3-08B78836B1C7}">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -972,7 +1009,7 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3E8A2C-78ED-4C05-8353-A07A1699F673}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,7 +1360,7 @@
   <dimension ref="B2:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,4 +1473,705 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F59211D-0CF4-40FF-9215-F8BE8347E42A}">
+  <dimension ref="C2:Q25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08A4E6A-DF26-473E-B855-F329ADC94B35}">
+  <dimension ref="C4:N22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22:M22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>